--- a/examples/manifesto_analysis_results.xlsx
+++ b/examples/manifesto_analysis_results.xlsx
@@ -466,12 +466,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>The party strongly favors improving public services through increased state support in various sectors and social security measures.</t>
+          <t>The party strongly favors improving public services through increased state support and investments.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[{'role': 'system', 'content': 'You are an expert social scientist with a PhD in political science. This will be fun! You are conducting research on the policy positions that European parties in parliamentary democracies take in their political manifestos. Political manifestos are documents parties produce to explain their policy positions to voters in an election. For the following text of a party manifesto, please classify the party position on the overall orientation of the party toward Spending versus Taxation. Classify the manifesto on this policy using a ten point scale, where a 1 means strongly favors improving public services, a 5 means the party takes a position in the middle or balanced position between raising spending and reducing taxes, and a 10 means strongly favors reducing taxes. If the text of the manifesto does not provide a clear position on spending vs taxation, return the result of NA (meaning non-applicable).Only give the score and a one sentence explanation. Return it in the form of  a valid json string  without any Markdown formatting:  { "score": 5, "explanation": "The party takes a middle position on this policy." }  '}, {'role': 'user', 'content': "Analyze the following text:\n\n1. Offer a social democratic program focusing on equality, freedom, and national reconciliation while defending democracy and parliamentary republic.\n2. Protect minority rights, oppose discrimination, support Hungarian minorities, and promote the use of the Hungarian language.\n3. Increase state support in healthcare, education, culture, research, and science.\n4. Create and protect jobs through state investments, ensure social security, tax high incomes, support workers, and promote workers' rights.\n5. Establish free choice of healthcare institutions, increase healthcare workers' income, and uphold human dignity.\n6. Create a health insurance fund with parliamentary oversight, maintain national social insurance in healthcare.\n7. Guarantee pension value stability by the state, allow retirement after 40 years of service.\n8. Improve education funding, ensure equal opportunities, academic freedom, link vocational training to wages, and enhance university support.\n9. Ensure credible mass media, fight corruption, and promote pluralism.\n10. Promote a healthy environment with clean water, air, transportation, renewable energy, and waste recycling.\n11. Support the agricultural sector with aid, provide low-interest loans for farmers, and support agricultural activities.\n12. Establish stable self-governments at regional, county, and municipal levels, and reduce municipal staff."}]</t>
+          <t>[{'role': 'system', 'content': 'You are an expert social scientist with a PhD in political science. This will be fun! You are conducting research on the policy positions that European parties in parliamentary democracies take in their political manifestos. Political manifestos are documents parties produce to explain their policy positions to voters in an election. For the following text of a party manifesto, please classify the party position on the overall orientation of the party toward Spending versus Taxation. Classify the manifesto on this policy using a ten point scale, where a 1 means strongly favors improving public services, a 5 means the party takes a position in the middle or balanced position between raising spending and reducing taxes, and a 10 means strongly favors reducing taxes. If the text of the manifesto does not provide a clear position on spending vs taxation, return the result of NA (meaning non-applicable).Only give the score and a one sentence explanation. Return it in the form of  a valid json string  without any Markdown formatting:  { "score": 5, "explanation": "The party takes a middle position on this policy." }  '}, {'role': 'user', 'content': 'Analyze the following text:\n\n1. Increase state support for healthcare, education, culture, research, and science.\n2. Create and protect jobs through state investments and guarantees.\n3. Ensure social security for workers and retirees.\n4. Implement radical taxation on high incomes.\n5. Support wage earners through tax and contribution rebates.\n6. Establish strong labor protection and nationwide interest reconciliation based on equality.\n7. Ensure free choice of doctors and healthcare institutions.\n8. Drastically increase the income of healthcare workers.\n9. Create a health insurance fund with independent parliamentary oversight.\n10. Maintain a unified and national social insurance system in healthcare.\n11. Guarantee the value of pensions by the state, not just the constitution.\n12. Significantly increase the current low education budget.\n13. Ensure equal opportunities and freedom of education.\n14. Link vocational training contributions to the wage bill.\n15. Provide credible mass communication based on a realistic budget and pluralism.\n16. Fight corruption and bribery for a clean and transparent public life.\n17. Promote a healthy environment with clean water, air, and transportation.\n18. Increase renewable energy sources and waste recycling through state investments.\n19. Support the agricultural sector with EU and national state aid.\n20. Provide low-interest state loans for Hungarian agricultural entrepreneurs.\n21. Establish regional, county, and municipal governments with stable legal and financial foundations.\n22. Reduce the number of municipal governments by 50%.'}]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -491,12 +491,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>The party strongly favors improving public services through increased state support in various sectors.</t>
+          <t>The party strongly favors improving public services through increased state support and investments.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[{'role': 'system', 'content': 'You are an expert social scientist with a PhD in political science. Think carefully about your answer. You are conducting research on the policy positions that European parties in parliamentary democracies take in their political manifestos. Political manifestos are documents parties produce to explain their policy positions to voters in an election. For the following text of a party manifesto, please classify the party position on the overall orientation of the party toward Spending versus Taxation. Classify the manifesto on this policy using a ten point scale, where a 1 means strongly favors improving public services, a 5 means the party takes a position in the middle or balanced position between raising spending and reducing taxes, and a 10 means strongly favors reducing taxes. If the text of the manifesto does not provide a clear position on spending vs taxation, return the result of NA (meaning non-applicable).Only give the score and a one sentence explanation. Return it in the form of  a valid json string  without any Markdown formatting:  { "score": 5, "explanation": "The party takes a middle position on this policy." }  '}, {'role': 'user', 'content': "Analyze the following text:\n\n1. Offer a social democratic program focusing on equality, freedom, and national reconciliation while defending democracy and parliamentary republic.\n2. Protect minority rights, oppose discrimination, support Hungarian minorities, and promote the use of the Hungarian language.\n3. Increase state support in healthcare, education, culture, research, and science.\n4. Create and protect jobs through state investments, ensure social security, tax high incomes, support workers, and promote workers' rights.\n5. Establish free choice of healthcare institutions, increase healthcare workers' income, and uphold human dignity.\n6. Create a health insurance fund with parliamentary oversight, maintain national social insurance in healthcare.\n7. Guarantee pension value stability by the state, allow retirement after 40 years of service.\n8. Improve education funding, ensure equal opportunities, academic freedom, link vocational training to wages, and enhance university support.\n9. Ensure credible mass media, fight corruption, and promote pluralism.\n10. Promote a healthy environment with clean water, air, transportation, renewable energy, and waste recycling.\n11. Support the agricultural sector with aid, provide low-interest loans for farmers, and support agricultural activities.\n12. Establish stable self-governments at regional, county, and municipal levels, and reduce municipal staff."}]</t>
+          <t>[{'role': 'system', 'content': 'You are an expert social scientist with a PhD in political science. Think carefully about your answer. You are conducting research on the policy positions that European parties in parliamentary democracies take in their political manifestos. Political manifestos are documents parties produce to explain their policy positions to voters in an election. For the following text of a party manifesto, please classify the party position on the overall orientation of the party toward Spending versus Taxation. Classify the manifesto on this policy using a ten point scale, where a 1 means strongly favors improving public services, a 5 means the party takes a position in the middle or balanced position between raising spending and reducing taxes, and a 10 means strongly favors reducing taxes. If the text of the manifesto does not provide a clear position on spending vs taxation, return the result of NA (meaning non-applicable).Only give the score and a one sentence explanation. Return it in the form of  a valid json string  without any Markdown formatting:  { "score": 5, "explanation": "The party takes a middle position on this policy." }  '}, {'role': 'user', 'content': 'Analyze the following text:\n\n1. Increase state support for healthcare, education, culture, research, and science.\n2. Create and protect jobs through state investments and guarantees.\n3. Ensure social security for workers and retirees.\n4. Implement radical taxation on high incomes.\n5. Support wage earners through tax and contribution rebates.\n6. Establish strong labor protection and nationwide interest reconciliation based on equality.\n7. Ensure free choice of doctors and healthcare institutions.\n8. Drastically increase the income of healthcare workers.\n9. Create a health insurance fund with independent parliamentary oversight.\n10. Maintain a unified and national social insurance system in healthcare.\n11. Guarantee the value of pensions by the state, not just the constitution.\n12. Significantly increase the current low education budget.\n13. Ensure equal opportunities and freedom of education.\n14. Link vocational training contributions to the wage bill.\n15. Provide credible mass communication based on a realistic budget and pluralism.\n16. Fight corruption and bribery for a clean and transparent public life.\n17. Promote a healthy environment with clean water, air, and transportation.\n18. Increase renewable energy sources and waste recycling through state investments.\n19. Support the agricultural sector with EU and national state aid.\n20. Provide low-interest state loans for Hungarian agricultural entrepreneurs.\n21. Establish regional, county, and municipal governments with stable legal and financial foundations.\n22. Reduce the number of municipal governments by 50%.'}]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -516,12 +516,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>The party strongly favors improving public services through increased state support in various sectors and social security measures.</t>
+          <t>The party strongly favors improving public services through increased state support and investments.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[{'role': 'system', 'content': 'You are an expert social scientist with a PhD in political science. I really need your help. You are conducting research on the policy positions that European parties in parliamentary democracies take in their political manifestos. Political manifestos are documents parties produce to explain their policy positions to voters in an election. For the following text of a party manifesto, please classify the party position on the overall orientation of the party toward Spending versus Taxation. Classify the manifesto on this policy using a ten point scale, where a 1 means strongly favors improving public services, a 5 means the party takes a position in the middle or balanced position between raising spending and reducing taxes, and a 10 means strongly favors reducing taxes. If the text of the manifesto does not provide a clear position on spending vs taxation, return the result of NA (meaning non-applicable).Only give the score and a one sentence explanation. Return it in the form of  a valid json string  without any Markdown formatting:  { "score": 5, "explanation": "The party takes a middle position on this policy." }  '}, {'role': 'user', 'content': "Analyze the following text:\n\n1. Offer a social democratic program focusing on equality, freedom, and national reconciliation while defending democracy and parliamentary republic.\n2. Protect minority rights, oppose discrimination, support Hungarian minorities, and promote the use of the Hungarian language.\n3. Increase state support in healthcare, education, culture, research, and science.\n4. Create and protect jobs through state investments, ensure social security, tax high incomes, support workers, and promote workers' rights.\n5. Establish free choice of healthcare institutions, increase healthcare workers' income, and uphold human dignity.\n6. Create a health insurance fund with parliamentary oversight, maintain national social insurance in healthcare.\n7. Guarantee pension value stability by the state, allow retirement after 40 years of service.\n8. Improve education funding, ensure equal opportunities, academic freedom, link vocational training to wages, and enhance university support.\n9. Ensure credible mass media, fight corruption, and promote pluralism.\n10. Promote a healthy environment with clean water, air, transportation, renewable energy, and waste recycling.\n11. Support the agricultural sector with aid, provide low-interest loans for farmers, and support agricultural activities.\n12. Establish stable self-governments at regional, county, and municipal levels, and reduce municipal staff."}]</t>
+          <t>[{'role': 'system', 'content': 'You are an expert social scientist with a PhD in political science. I really need your help. You are conducting research on the policy positions that European parties in parliamentary democracies take in their political manifestos. Political manifestos are documents parties produce to explain their policy positions to voters in an election. For the following text of a party manifesto, please classify the party position on the overall orientation of the party toward Spending versus Taxation. Classify the manifesto on this policy using a ten point scale, where a 1 means strongly favors improving public services, a 5 means the party takes a position in the middle or balanced position between raising spending and reducing taxes, and a 10 means strongly favors reducing taxes. If the text of the manifesto does not provide a clear position on spending vs taxation, return the result of NA (meaning non-applicable).Only give the score and a one sentence explanation. Return it in the form of  a valid json string  without any Markdown formatting:  { "score": 5, "explanation": "The party takes a middle position on this policy." }  '}, {'role': 'user', 'content': 'Analyze the following text:\n\n1. Increase state support for healthcare, education, culture, research, and science.\n2. Create and protect jobs through state investments and guarantees.\n3. Ensure social security for workers and retirees.\n4. Implement radical taxation on high incomes.\n5. Support wage earners through tax and contribution rebates.\n6. Establish strong labor protection and nationwide interest reconciliation based on equality.\n7. Ensure free choice of doctors and healthcare institutions.\n8. Drastically increase the income of healthcare workers.\n9. Create a health insurance fund with independent parliamentary oversight.\n10. Maintain a unified and national social insurance system in healthcare.\n11. Guarantee the value of pensions by the state, not just the constitution.\n12. Significantly increase the current low education budget.\n13. Ensure equal opportunities and freedom of education.\n14. Link vocational training contributions to the wage bill.\n15. Provide credible mass communication based on a realistic budget and pluralism.\n16. Fight corruption and bribery for a clean and transparent public life.\n17. Promote a healthy environment with clean water, air, and transportation.\n18. Increase renewable energy sources and waste recycling through state investments.\n19. Support the agricultural sector with EU and national state aid.\n20. Provide low-interest state loans for Hungarian agricultural entrepreneurs.\n21. Establish regional, county, and municipal governments with stable legal and financial foundations.\n22. Reduce the number of municipal governments by 50%.'}]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,12 +541,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>The party strongly favors improving public services through increased state support in various sectors and social security measures.</t>
+          <t>The party strongly favors improving public services through increased state support and investments.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[{'role': 'system', 'content': 'You are highly intelligent. This will be fun! You are conducting research on the policy positions that European parties in parliamentary democracies take in their political manifestos. Political manifestos are documents parties produce to explain their policy positions to voters in an election. For the following text of a party manifesto, please classify the party position on the overall orientation of the party toward Spending versus Taxation. Classify the manifesto on this policy using a ten point scale, where a 1 means strongly favors improving public services, a 5 means the party takes a position in the middle or balanced position between raising spending and reducing taxes, and a 10 means strongly favors reducing taxes. If the text of the manifesto does not provide a clear position on spending vs taxation, return the result of NA (meaning non-applicable).Only give the score and a one sentence explanation. Return it in the form of  a valid json string  without any Markdown formatting:  { "score": 5, "explanation": "The party takes a middle position on this policy." }  '}, {'role': 'user', 'content': "Analyze the following text:\n\n1. Offer a social democratic program focusing on equality, freedom, and national reconciliation while defending democracy and parliamentary republic.\n2. Protect minority rights, oppose discrimination, support Hungarian minorities, and promote the use of the Hungarian language.\n3. Increase state support in healthcare, education, culture, research, and science.\n4. Create and protect jobs through state investments, ensure social security, tax high incomes, support workers, and promote workers' rights.\n5. Establish free choice of healthcare institutions, increase healthcare workers' income, and uphold human dignity.\n6. Create a health insurance fund with parliamentary oversight, maintain national social insurance in healthcare.\n7. Guarantee pension value stability by the state, allow retirement after 40 years of service.\n8. Improve education funding, ensure equal opportunities, academic freedom, link vocational training to wages, and enhance university support.\n9. Ensure credible mass media, fight corruption, and promote pluralism.\n10. Promote a healthy environment with clean water, air, transportation, renewable energy, and waste recycling.\n11. Support the agricultural sector with aid, provide low-interest loans for farmers, and support agricultural activities.\n12. Establish stable self-governments at regional, county, and municipal levels, and reduce municipal staff."}]</t>
+          <t>[{'role': 'system', 'content': 'You are highly intelligent. This will be fun! You are conducting research on the policy positions that European parties in parliamentary democracies take in their political manifestos. Political manifestos are documents parties produce to explain their policy positions to voters in an election. For the following text of a party manifesto, please classify the party position on the overall orientation of the party toward Spending versus Taxation. Classify the manifesto on this policy using a ten point scale, where a 1 means strongly favors improving public services, a 5 means the party takes a position in the middle or balanced position between raising spending and reducing taxes, and a 10 means strongly favors reducing taxes. If the text of the manifesto does not provide a clear position on spending vs taxation, return the result of NA (meaning non-applicable).Only give the score and a one sentence explanation. Return it in the form of  a valid json string  without any Markdown formatting:  { "score": 5, "explanation": "The party takes a middle position on this policy." }  '}, {'role': 'user', 'content': 'Analyze the following text:\n\n1. Increase state support for healthcare, education, culture, research, and science.\n2. Create and protect jobs through state investments and guarantees.\n3. Ensure social security for workers and retirees.\n4. Implement radical taxation on high incomes.\n5. Support wage earners through tax and contribution rebates.\n6. Establish strong labor protection and nationwide interest reconciliation based on equality.\n7. Ensure free choice of doctors and healthcare institutions.\n8. Drastically increase the income of healthcare workers.\n9. Create a health insurance fund with independent parliamentary oversight.\n10. Maintain a unified and national social insurance system in healthcare.\n11. Guarantee the value of pensions by the state, not just the constitution.\n12. Significantly increase the current low education budget.\n13. Ensure equal opportunities and freedom of education.\n14. Link vocational training contributions to the wage bill.\n15. Provide credible mass communication based on a realistic budget and pluralism.\n16. Fight corruption and bribery for a clean and transparent public life.\n17. Promote a healthy environment with clean water, air, and transportation.\n18. Increase renewable energy sources and waste recycling through state investments.\n19. Support the agricultural sector with EU and national state aid.\n20. Provide low-interest state loans for Hungarian agricultural entrepreneurs.\n21. Establish regional, county, and municipal governments with stable legal and financial foundations.\n22. Reduce the number of municipal governments by 50%.'}]</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -566,12 +566,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>The party strongly favors improving public services through increased state support in various sectors.</t>
+          <t>The party strongly favors improving public services through increased state support and investments.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[{'role': 'system', 'content': 'You are highly intelligent. Think carefully about your answer. You are conducting research on the policy positions that European parties in parliamentary democracies take in their political manifestos. Political manifestos are documents parties produce to explain their policy positions to voters in an election. For the following text of a party manifesto, please classify the party position on the overall orientation of the party toward Spending versus Taxation. Classify the manifesto on this policy using a ten point scale, where a 1 means strongly favors improving public services, a 5 means the party takes a position in the middle or balanced position between raising spending and reducing taxes, and a 10 means strongly favors reducing taxes. If the text of the manifesto does not provide a clear position on spending vs taxation, return the result of NA (meaning non-applicable).Only give the score and a one sentence explanation. Return it in the form of  a valid json string  without any Markdown formatting:  { "score": 5, "explanation": "The party takes a middle position on this policy." }  '}, {'role': 'user', 'content': "Analyze the following text:\n\n1. Offer a social democratic program focusing on equality, freedom, and national reconciliation while defending democracy and parliamentary republic.\n2. Protect minority rights, oppose discrimination, support Hungarian minorities, and promote the use of the Hungarian language.\n3. Increase state support in healthcare, education, culture, research, and science.\n4. Create and protect jobs through state investments, ensure social security, tax high incomes, support workers, and promote workers' rights.\n5. Establish free choice of healthcare institutions, increase healthcare workers' income, and uphold human dignity.\n6. Create a health insurance fund with parliamentary oversight, maintain national social insurance in healthcare.\n7. Guarantee pension value stability by the state, allow retirement after 40 years of service.\n8. Improve education funding, ensure equal opportunities, academic freedom, link vocational training to wages, and enhance university support.\n9. Ensure credible mass media, fight corruption, and promote pluralism.\n10. Promote a healthy environment with clean water, air, transportation, renewable energy, and waste recycling.\n11. Support the agricultural sector with aid, provide low-interest loans for farmers, and support agricultural activities.\n12. Establish stable self-governments at regional, county, and municipal levels, and reduce municipal staff."}]</t>
+          <t>[{'role': 'system', 'content': 'You are highly intelligent. Think carefully about your answer. You are conducting research on the policy positions that European parties in parliamentary democracies take in their political manifestos. Political manifestos are documents parties produce to explain their policy positions to voters in an election. For the following text of a party manifesto, please classify the party position on the overall orientation of the party toward Spending versus Taxation. Classify the manifesto on this policy using a ten point scale, where a 1 means strongly favors improving public services, a 5 means the party takes a position in the middle or balanced position between raising spending and reducing taxes, and a 10 means strongly favors reducing taxes. If the text of the manifesto does not provide a clear position on spending vs taxation, return the result of NA (meaning non-applicable).Only give the score and a one sentence explanation. Return it in the form of  a valid json string  without any Markdown formatting:  { "score": 5, "explanation": "The party takes a middle position on this policy." }  '}, {'role': 'user', 'content': 'Analyze the following text:\n\n1. Increase state support for healthcare, education, culture, research, and science.\n2. Create and protect jobs through state investments and guarantees.\n3. Ensure social security for workers and retirees.\n4. Implement radical taxation on high incomes.\n5. Support wage earners through tax and contribution rebates.\n6. Establish strong labor protection and nationwide interest reconciliation based on equality.\n7. Ensure free choice of doctors and healthcare institutions.\n8. Drastically increase the income of healthcare workers.\n9. Create a health insurance fund with independent parliamentary oversight.\n10. Maintain a unified and national social insurance system in healthcare.\n11. Guarantee the value of pensions by the state, not just the constitution.\n12. Significantly increase the current low education budget.\n13. Ensure equal opportunities and freedom of education.\n14. Link vocational training contributions to the wage bill.\n15. Provide credible mass communication based on a realistic budget and pluralism.\n16. Fight corruption and bribery for a clean and transparent public life.\n17. Promote a healthy environment with clean water, air, and transportation.\n18. Increase renewable energy sources and waste recycling through state investments.\n19. Support the agricultural sector with EU and national state aid.\n20. Provide low-interest state loans for Hungarian agricultural entrepreneurs.\n21. Establish regional, county, and municipal governments with stable legal and financial foundations.\n22. Reduce the number of municipal governments by 50%.'}]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -591,12 +591,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>The party strongly favors improving public services through increased state support in various sectors such as healthcare, education, culture, research, and science.</t>
+          <t>The party strongly favors improving public services through increased state support and investments.</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[{'role': 'system', 'content': 'You are highly intelligent. I really need your help. You are conducting research on the policy positions that European parties in parliamentary democracies take in their political manifestos. Political manifestos are documents parties produce to explain their policy positions to voters in an election. For the following text of a party manifesto, please classify the party position on the overall orientation of the party toward Spending versus Taxation. Classify the manifesto on this policy using a ten point scale, where a 1 means strongly favors improving public services, a 5 means the party takes a position in the middle or balanced position between raising spending and reducing taxes, and a 10 means strongly favors reducing taxes. If the text of the manifesto does not provide a clear position on spending vs taxation, return the result of NA (meaning non-applicable).Only give the score and a one sentence explanation. Return it in the form of  a valid json string  without any Markdown formatting:  { "score": 5, "explanation": "The party takes a middle position on this policy." }  '}, {'role': 'user', 'content': "Analyze the following text:\n\n1. Offer a social democratic program focusing on equality, freedom, and national reconciliation while defending democracy and parliamentary republic.\n2. Protect minority rights, oppose discrimination, support Hungarian minorities, and promote the use of the Hungarian language.\n3. Increase state support in healthcare, education, culture, research, and science.\n4. Create and protect jobs through state investments, ensure social security, tax high incomes, support workers, and promote workers' rights.\n5. Establish free choice of healthcare institutions, increase healthcare workers' income, and uphold human dignity.\n6. Create a health insurance fund with parliamentary oversight, maintain national social insurance in healthcare.\n7. Guarantee pension value stability by the state, allow retirement after 40 years of service.\n8. Improve education funding, ensure equal opportunities, academic freedom, link vocational training to wages, and enhance university support.\n9. Ensure credible mass media, fight corruption, and promote pluralism.\n10. Promote a healthy environment with clean water, air, transportation, renewable energy, and waste recycling.\n11. Support the agricultural sector with aid, provide low-interest loans for farmers, and support agricultural activities.\n12. Establish stable self-governments at regional, county, and municipal levels, and reduce municipal staff."}]</t>
+          <t>[{'role': 'system', 'content': 'You are highly intelligent. I really need your help. You are conducting research on the policy positions that European parties in parliamentary democracies take in their political manifestos. Political manifestos are documents parties produce to explain their policy positions to voters in an election. For the following text of a party manifesto, please classify the party position on the overall orientation of the party toward Spending versus Taxation. Classify the manifesto on this policy using a ten point scale, where a 1 means strongly favors improving public services, a 5 means the party takes a position in the middle or balanced position between raising spending and reducing taxes, and a 10 means strongly favors reducing taxes. If the text of the manifesto does not provide a clear position on spending vs taxation, return the result of NA (meaning non-applicable).Only give the score and a one sentence explanation. Return it in the form of  a valid json string  without any Markdown formatting:  { "score": 5, "explanation": "The party takes a middle position on this policy." }  '}, {'role': 'user', 'content': 'Analyze the following text:\n\n1. Increase state support for healthcare, education, culture, research, and science.\n2. Create and protect jobs through state investments and guarantees.\n3. Ensure social security for workers and retirees.\n4. Implement radical taxation on high incomes.\n5. Support wage earners through tax and contribution rebates.\n6. Establish strong labor protection and nationwide interest reconciliation based on equality.\n7. Ensure free choice of doctors and healthcare institutions.\n8. Drastically increase the income of healthcare workers.\n9. Create a health insurance fund with independent parliamentary oversight.\n10. Maintain a unified and national social insurance system in healthcare.\n11. Guarantee the value of pensions by the state, not just the constitution.\n12. Significantly increase the current low education budget.\n13. Ensure equal opportunities and freedom of education.\n14. Link vocational training contributions to the wage bill.\n15. Provide credible mass communication based on a realistic budget and pluralism.\n16. Fight corruption and bribery for a clean and transparent public life.\n17. Promote a healthy environment with clean water, air, and transportation.\n18. Increase renewable energy sources and waste recycling through state investments.\n19. Support the agricultural sector with EU and national state aid.\n20. Provide low-interest state loans for Hungarian agricultural entrepreneurs.\n21. Establish regional, county, and municipal governments with stable legal and financial foundations.\n22. Reduce the number of municipal governments by 50%.'}]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -616,12 +616,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>The party strongly favors improving public services through increased state support in various sectors and social security measures.</t>
+          <t>The party strongly favors improving public services through increased state support and investments.</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[{'role': 'system', 'content': 'You are a professor of economics. This will be fun! You are conducting research on the policy positions that European parties in parliamentary democracies take in their political manifestos. Political manifestos are documents parties produce to explain their policy positions to voters in an election. For the following text of a party manifesto, please classify the party position on the overall orientation of the party toward Spending versus Taxation. Classify the manifesto on this policy using a ten point scale, where a 1 means strongly favors improving public services, a 5 means the party takes a position in the middle or balanced position between raising spending and reducing taxes, and a 10 means strongly favors reducing taxes. If the text of the manifesto does not provide a clear position on spending vs taxation, return the result of NA (meaning non-applicable).Only give the score and a one sentence explanation. Return it in the form of  a valid json string  without any Markdown formatting:  { "score": 5, "explanation": "The party takes a middle position on this policy." }  '}, {'role': 'user', 'content': "Analyze the following text:\n\n1. Offer a social democratic program focusing on equality, freedom, and national reconciliation while defending democracy and parliamentary republic.\n2. Protect minority rights, oppose discrimination, support Hungarian minorities, and promote the use of the Hungarian language.\n3. Increase state support in healthcare, education, culture, research, and science.\n4. Create and protect jobs through state investments, ensure social security, tax high incomes, support workers, and promote workers' rights.\n5. Establish free choice of healthcare institutions, increase healthcare workers' income, and uphold human dignity.\n6. Create a health insurance fund with parliamentary oversight, maintain national social insurance in healthcare.\n7. Guarantee pension value stability by the state, allow retirement after 40 years of service.\n8. Improve education funding, ensure equal opportunities, academic freedom, link vocational training to wages, and enhance university support.\n9. Ensure credible mass media, fight corruption, and promote pluralism.\n10. Promote a healthy environment with clean water, air, transportation, renewable energy, and waste recycling.\n11. Support the agricultural sector with aid, provide low-interest loans for farmers, and support agricultural activities.\n12. Establish stable self-governments at regional, county, and municipal levels, and reduce municipal staff."}]</t>
+          <t>[{'role': 'system', 'content': 'You are a professor of economics. This will be fun! You are conducting research on the policy positions that European parties in parliamentary democracies take in their political manifestos. Political manifestos are documents parties produce to explain their policy positions to voters in an election. For the following text of a party manifesto, please classify the party position on the overall orientation of the party toward Spending versus Taxation. Classify the manifesto on this policy using a ten point scale, where a 1 means strongly favors improving public services, a 5 means the party takes a position in the middle or balanced position between raising spending and reducing taxes, and a 10 means strongly favors reducing taxes. If the text of the manifesto does not provide a clear position on spending vs taxation, return the result of NA (meaning non-applicable).Only give the score and a one sentence explanation. Return it in the form of  a valid json string  without any Markdown formatting:  { "score": 5, "explanation": "The party takes a middle position on this policy." }  '}, {'role': 'user', 'content': 'Analyze the following text:\n\n1. Increase state support for healthcare, education, culture, research, and science.\n2. Create and protect jobs through state investments and guarantees.\n3. Ensure social security for workers and retirees.\n4. Implement radical taxation on high incomes.\n5. Support wage earners through tax and contribution rebates.\n6. Establish strong labor protection and nationwide interest reconciliation based on equality.\n7. Ensure free choice of doctors and healthcare institutions.\n8. Drastically increase the income of healthcare workers.\n9. Create a health insurance fund with independent parliamentary oversight.\n10. Maintain a unified and national social insurance system in healthcare.\n11. Guarantee the value of pensions by the state, not just the constitution.\n12. Significantly increase the current low education budget.\n13. Ensure equal opportunities and freedom of education.\n14. Link vocational training contributions to the wage bill.\n15. Provide credible mass communication based on a realistic budget and pluralism.\n16. Fight corruption and bribery for a clean and transparent public life.\n17. Promote a healthy environment with clean water, air, and transportation.\n18. Increase renewable energy sources and waste recycling through state investments.\n19. Support the agricultural sector with EU and national state aid.\n20. Provide low-interest state loans for Hungarian agricultural entrepreneurs.\n21. Establish regional, county, and municipal governments with stable legal and financial foundations.\n22. Reduce the number of municipal governments by 50%.'}]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -641,12 +641,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>The party strongly favors improving public services through increased state support in various sectors and social security measures.</t>
+          <t>The party strongly favors improving public services through increased state support and investments.</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[{'role': 'system', 'content': 'You are a professor of economics. Think carefully about your answer. You are conducting research on the policy positions that European parties in parliamentary democracies take in their political manifestos. Political manifestos are documents parties produce to explain their policy positions to voters in an election. For the following text of a party manifesto, please classify the party position on the overall orientation of the party toward Spending versus Taxation. Classify the manifesto on this policy using a ten point scale, where a 1 means strongly favors improving public services, a 5 means the party takes a position in the middle or balanced position between raising spending and reducing taxes, and a 10 means strongly favors reducing taxes. If the text of the manifesto does not provide a clear position on spending vs taxation, return the result of NA (meaning non-applicable).Only give the score and a one sentence explanation. Return it in the form of  a valid json string  without any Markdown formatting:  { "score": 5, "explanation": "The party takes a middle position on this policy." }  '}, {'role': 'user', 'content': "Analyze the following text:\n\n1. Offer a social democratic program focusing on equality, freedom, and national reconciliation while defending democracy and parliamentary republic.\n2. Protect minority rights, oppose discrimination, support Hungarian minorities, and promote the use of the Hungarian language.\n3. Increase state support in healthcare, education, culture, research, and science.\n4. Create and protect jobs through state investments, ensure social security, tax high incomes, support workers, and promote workers' rights.\n5. Establish free choice of healthcare institutions, increase healthcare workers' income, and uphold human dignity.\n6. Create a health insurance fund with parliamentary oversight, maintain national social insurance in healthcare.\n7. Guarantee pension value stability by the state, allow retirement after 40 years of service.\n8. Improve education funding, ensure equal opportunities, academic freedom, link vocational training to wages, and enhance university support.\n9. Ensure credible mass media, fight corruption, and promote pluralism.\n10. Promote a healthy environment with clean water, air, transportation, renewable energy, and waste recycling.\n11. Support the agricultural sector with aid, provide low-interest loans for farmers, and support agricultural activities.\n12. Establish stable self-governments at regional, county, and municipal levels, and reduce municipal staff."}]</t>
+          <t>[{'role': 'system', 'content': 'You are a professor of economics. Think carefully about your answer. You are conducting research on the policy positions that European parties in parliamentary democracies take in their political manifestos. Political manifestos are documents parties produce to explain their policy positions to voters in an election. For the following text of a party manifesto, please classify the party position on the overall orientation of the party toward Spending versus Taxation. Classify the manifesto on this policy using a ten point scale, where a 1 means strongly favors improving public services, a 5 means the party takes a position in the middle or balanced position between raising spending and reducing taxes, and a 10 means strongly favors reducing taxes. If the text of the manifesto does not provide a clear position on spending vs taxation, return the result of NA (meaning non-applicable).Only give the score and a one sentence explanation. Return it in the form of  a valid json string  without any Markdown formatting:  { "score": 5, "explanation": "The party takes a middle position on this policy." }  '}, {'role': 'user', 'content': 'Analyze the following text:\n\n1. Increase state support for healthcare, education, culture, research, and science.\n2. Create and protect jobs through state investments and guarantees.\n3. Ensure social security for workers and retirees.\n4. Implement radical taxation on high incomes.\n5. Support wage earners through tax and contribution rebates.\n6. Establish strong labor protection and nationwide interest reconciliation based on equality.\n7. Ensure free choice of doctors and healthcare institutions.\n8. Drastically increase the income of healthcare workers.\n9. Create a health insurance fund with independent parliamentary oversight.\n10. Maintain a unified and national social insurance system in healthcare.\n11. Guarantee the value of pensions by the state, not just the constitution.\n12. Significantly increase the current low education budget.\n13. Ensure equal opportunities and freedom of education.\n14. Link vocational training contributions to the wage bill.\n15. Provide credible mass communication based on a realistic budget and pluralism.\n16. Fight corruption and bribery for a clean and transparent public life.\n17. Promote a healthy environment with clean water, air, and transportation.\n18. Increase renewable energy sources and waste recycling through state investments.\n19. Support the agricultural sector with EU and national state aid.\n20. Provide low-interest state loans for Hungarian agricultural entrepreneurs.\n21. Establish regional, county, and municipal governments with stable legal and financial foundations.\n22. Reduce the number of municipal governments by 50%.'}]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -666,12 +666,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>The party strongly favors improving public services through increased state support in various sectors and social security measures.</t>
+          <t>The party strongly favors improving public services through increased state support and investments.</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[{'role': 'system', 'content': 'You are a professor of economics. I really need your help. You are conducting research on the policy positions that European parties in parliamentary democracies take in their political manifestos. Political manifestos are documents parties produce to explain their policy positions to voters in an election. For the following text of a party manifesto, please classify the party position on the overall orientation of the party toward Spending versus Taxation. Classify the manifesto on this policy using a ten point scale, where a 1 means strongly favors improving public services, a 5 means the party takes a position in the middle or balanced position between raising spending and reducing taxes, and a 10 means strongly favors reducing taxes. If the text of the manifesto does not provide a clear position on spending vs taxation, return the result of NA (meaning non-applicable).Only give the score and a one sentence explanation. Return it in the form of  a valid json string  without any Markdown formatting:  { "score": 5, "explanation": "The party takes a middle position on this policy." }  '}, {'role': 'user', 'content': "Analyze the following text:\n\n1. Offer a social democratic program focusing on equality, freedom, and national reconciliation while defending democracy and parliamentary republic.\n2. Protect minority rights, oppose discrimination, support Hungarian minorities, and promote the use of the Hungarian language.\n3. Increase state support in healthcare, education, culture, research, and science.\n4. Create and protect jobs through state investments, ensure social security, tax high incomes, support workers, and promote workers' rights.\n5. Establish free choice of healthcare institutions, increase healthcare workers' income, and uphold human dignity.\n6. Create a health insurance fund with parliamentary oversight, maintain national social insurance in healthcare.\n7. Guarantee pension value stability by the state, allow retirement after 40 years of service.\n8. Improve education funding, ensure equal opportunities, academic freedom, link vocational training to wages, and enhance university support.\n9. Ensure credible mass media, fight corruption, and promote pluralism.\n10. Promote a healthy environment with clean water, air, transportation, renewable energy, and waste recycling.\n11. Support the agricultural sector with aid, provide low-interest loans for farmers, and support agricultural activities.\n12. Establish stable self-governments at regional, county, and municipal levels, and reduce municipal staff."}]</t>
+          <t>[{'role': 'system', 'content': 'You are a professor of economics. I really need your help. You are conducting research on the policy positions that European parties in parliamentary democracies take in their political manifestos. Political manifestos are documents parties produce to explain their policy positions to voters in an election. For the following text of a party manifesto, please classify the party position on the overall orientation of the party toward Spending versus Taxation. Classify the manifesto on this policy using a ten point scale, where a 1 means strongly favors improving public services, a 5 means the party takes a position in the middle or balanced position between raising spending and reducing taxes, and a 10 means strongly favors reducing taxes. If the text of the manifesto does not provide a clear position on spending vs taxation, return the result of NA (meaning non-applicable).Only give the score and a one sentence explanation. Return it in the form of  a valid json string  without any Markdown formatting:  { "score": 5, "explanation": "The party takes a middle position on this policy." }  '}, {'role': 'user', 'content': 'Analyze the following text:\n\n1. Increase state support for healthcare, education, culture, research, and science.\n2. Create and protect jobs through state investments and guarantees.\n3. Ensure social security for workers and retirees.\n4. Implement radical taxation on high incomes.\n5. Support wage earners through tax and contribution rebates.\n6. Establish strong labor protection and nationwide interest reconciliation based on equality.\n7. Ensure free choice of doctors and healthcare institutions.\n8. Drastically increase the income of healthcare workers.\n9. Create a health insurance fund with independent parliamentary oversight.\n10. Maintain a unified and national social insurance system in healthcare.\n11. Guarantee the value of pensions by the state, not just the constitution.\n12. Significantly increase the current low education budget.\n13. Ensure equal opportunities and freedom of education.\n14. Link vocational training contributions to the wage bill.\n15. Provide credible mass communication based on a realistic budget and pluralism.\n16. Fight corruption and bribery for a clean and transparent public life.\n17. Promote a healthy environment with clean water, air, and transportation.\n18. Increase renewable energy sources and waste recycling through state investments.\n19. Support the agricultural sector with EU and national state aid.\n20. Provide low-interest state loans for Hungarian agricultural entrepreneurs.\n21. Establish regional, county, and municipal governments with stable legal and financial foundations.\n22. Reduce the number of municipal governments by 50%.'}]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
